--- a/biology/Botanique/Ephedra/Ephedra.xlsx
+++ b/biology/Botanique/Ephedra/Ephedra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ephedra  est un genre de plantes gnétophytes (gymnospermes, classe des Equisetopsida) de la famille des Ephedraceae, à très vaste répartition dans l'Ancien et le Nouveau Monde, qui comprend environ 70 espèces acceptées.
@@ -514,18 +526,17 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Ephedra partagent les caractéristiques communes suivantes :
-Ces plantes sont des arbustes, des arbrisseaux ou des plantes herbacées, généralement dioïques, rarement monoïques. Les tiges, dressées ou couchées, parfois grimpantes, sont très ramifiées, articulées, et assurent la photosynthèse, les feuilles étant très réduites[3].
-Les rameaux, opposés ou verticillés, sont verts, cylindriques, et rainurés longitudinalement. Les feuilles, opposées ou disposées en verticilles de 3, sont réduites à des écailles plus ou moins connées à la base et réduites à des gaines membraneuses, généralement éphémères, et pour la plupart non photosynthétiques. Les canaux résinifères sont absents[3].
-Les inflorescences sont des cônes terminaux ou axillaires, de forme ovoïde ou ellipsoïde[3].
-Les cônes mâles, producteurs de pollen, sont solitaires ou groupés aux nœuds. Chaque cône est constitué de bractées membraneuses disposées en 2 à 8 paires, décussées ou verticillées par 3. Les bractées proximales sont vides, tandis que chaque bractée distale sous-tend une fleur mâle composée de 2 écailles soudées à la base, orbiculaires ou obovales, constituant un faux périanthe. Les anthères, sessiles ou stipitées, sont insérées sur une colonne staminale[3].
-Les cônes femelles, producteurs de graines, sont opposés ou disposés en verticilles par 3 ou 4 aux nœuds. Chaque cône est constitué de bractées se chevauchant et disposées en 2 à 10 paires décussées ou en verticilles par 3. A maturité, ces bractées sont charnues et rouges (rarement brunes et membraneuses). Les bractées proximales sont vides tandis que les bractées distales sous-tendent une fleur femelle axillaire composée d'une paire d'écailles soudées et coriaces. Ce faux périanthe renferme l'ovule enveloppé d'un tégument membraneux unique prolongé en un micropyle tubulaire mince[3].
-Les graines, au nombre d'une deux ou trois par cône, comptent deux cotylédons. La germination est épigée[3].
-Cytologie
-Le nombre de chromosomes est très variable chez le genre Ephedra, prenant selon les espèces les valeurs : 2n = 14, 24, 28, 36, 56[3], ce qui correspond à presque toute la gamme rencontrée chez les Gymnospermes dans leur ensemble[4].
-Le genre Ephedra est, parmi les Gymnospermes, le plus diversifié par la taille du génome, avec des valeurs 1C variant d'un facteur  proche de  5, entre 8,09 et 38,34 pg, et il comprend la plus grande taille de génome constatée chez les Gymnospermes avec 2n = 8x = 56 chez Ephedra antisyphilitica. Selon une étude américaine de 2015 portant sur une trentaine d'espèces, plus des deux tiers des espèces sont polyploïdes, la tétraploïdie étant la plus courante (54 % sont tétraploïdes, 2 % sont pentaploïdes, 10 % sont hexaploïdes et 4 % sont octoploïdes[4].
+Ces plantes sont des arbustes, des arbrisseaux ou des plantes herbacées, généralement dioïques, rarement monoïques. Les tiges, dressées ou couchées, parfois grimpantes, sont très ramifiées, articulées, et assurent la photosynthèse, les feuilles étant très réduites.
+Les rameaux, opposés ou verticillés, sont verts, cylindriques, et rainurés longitudinalement. Les feuilles, opposées ou disposées en verticilles de 3, sont réduites à des écailles plus ou moins connées à la base et réduites à des gaines membraneuses, généralement éphémères, et pour la plupart non photosynthétiques. Les canaux résinifères sont absents.
+Les inflorescences sont des cônes terminaux ou axillaires, de forme ovoïde ou ellipsoïde.
+Les cônes mâles, producteurs de pollen, sont solitaires ou groupés aux nœuds. Chaque cône est constitué de bractées membraneuses disposées en 2 à 8 paires, décussées ou verticillées par 3. Les bractées proximales sont vides, tandis que chaque bractée distale sous-tend une fleur mâle composée de 2 écailles soudées à la base, orbiculaires ou obovales, constituant un faux périanthe. Les anthères, sessiles ou stipitées, sont insérées sur une colonne staminale.
+Les cônes femelles, producteurs de graines, sont opposés ou disposés en verticilles par 3 ou 4 aux nœuds. Chaque cône est constitué de bractées se chevauchant et disposées en 2 à 10 paires décussées ou en verticilles par 3. A maturité, ces bractées sont charnues et rouges (rarement brunes et membraneuses). Les bractées proximales sont vides tandis que les bractées distales sous-tendent une fleur femelle axillaire composée d'une paire d'écailles soudées et coriaces. Ce faux périanthe renferme l'ovule enveloppé d'un tégument membraneux unique prolongé en un micropyle tubulaire mince.
+Les graines, au nombre d'une deux ou trois par cône, comptent deux cotylédons. La germination est épigée.
 </t>
         </is>
       </c>
@@ -551,13 +562,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution et habitat</t>
+          <t>Caractéristiques générales</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'aire de répartition du genre Ephedra est très vaste, s'étendant à la fois dans l'Ancien et le Nouveau Monde. Ces espèces se rencontrent en Eurasie, de l'Europe méridionale jusqu'en Sibérie et en Chine, et de l'Anatolie à la péninsule arabique, dans le nord de l'Afrique (Afrique du Nord, y compris la Macaronésie, et corne de l'Afrique) ainsi qu'en Amérique du Nord (sud-ouest des États-Unis et nord du Mexique) et en Amérique du Sud (de l'Équateur à la Terre de feu)[5],[6].
-Ces plantes se rencontrent principalement dans des zones semi-arides ou arides, le plus souvent sur des sols secs, rocailleux ou sablonneux. Quelques espèces se rencontrent dans les prairies[6].
+          <t>Cytologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de chromosomes est très variable chez le genre Ephedra, prenant selon les espèces les valeurs : 2n = 14, 24, 28, 36, 56, ce qui correspond à presque toute la gamme rencontrée chez les Gymnospermes dans leur ensemble.
+Le genre Ephedra est, parmi les Gymnospermes, le plus diversifié par la taille du génome, avec des valeurs 1C variant d'un facteur  proche de  5, entre 8,09 et 38,34 pg, et il comprend la plus grande taille de génome constatée chez les Gymnospermes avec 2n = 8x = 56 chez Ephedra antisyphilitica. Selon une étude américaine de 2015 portant sur une trentaine d'espèces, plus des deux tiers des espèces sont polyploïdes, la tétraploïdie étant la plus courante (54 % sont tétraploïdes, 2 % sont pentaploïdes, 10 % sont hexaploïdes et 4 % sont octoploïdes.
 </t>
         </is>
       </c>
@@ -583,14 +600,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Composition chimique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ephedra est l'un des rares parmi les Gymnospermes à produire des alcaloïdes. Les espèces de ce genre contiennent notamment des alcaloïdes, du type « éphédrine », ayant une importance biologique certaine : éphédrine, pseudoéphédrine, noréphédrine, norpseudoéphédrine, méthyléphédrine et méthylpseudoéphédrine. En outre, on a signalé chez certaines espèces eurasiennes, outre les alcaloïdes du type « éphédrine », des  éphédroxanes, et des spermidines macrocycliques, appelées éphédradines A à D[7].
-D'autres composés chimiques sont également présents, notamment des kynurénates, des acides citrique, oxalique et malique, des saponines, des cristaux d'oxalate de calcium et des traces de minéraux. Les composés volatils présents dans ces plantes sont principalement représentés par des terpénoïdes qui peuvent servir de marqueurs chimiotaxinomiques[7].
-La teneur totale en alcaloïdes des différentes espèces du genre Ephedra varie considérablement. Certaines, comme les espèces américaines, ne produisent pratiquement aucun alcaloïde actif. La seule espèce commune en Europe, Ephedra distachya, produit peu d'alcaloïdes. En revanche, les espèces chinoises et indiennes produisent des quantités importantes de composés actifs. C'est notamment le cas d’Ephedra sinica et Ephedra equisetina en Chine et d’Ephedra intermedia et Ephedra gerardiana en Inde[8].
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition du genre Ephedra est très vaste, s'étendant à la fois dans l'Ancien et le Nouveau Monde. Ces espèces se rencontrent en Eurasie, de l'Europe méridionale jusqu'en Sibérie et en Chine, et de l'Anatolie à la péninsule arabique, dans le nord de l'Afrique (Afrique du Nord, y compris la Macaronésie, et corne de l'Afrique) ainsi qu'en Amérique du Nord (sud-ouest des États-Unis et nord du Mexique) et en Amérique du Sud (de l'Équateur à la Terre de feu),.
+Ces plantes se rencontrent principalement dans des zones semi-arides ou arides, le plus souvent sur des sols secs, rocailleux ou sablonneux. Quelques espèces se rencontrent dans les prairies.
 </t>
         </is>
       </c>
@@ -616,13 +634,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médecine traditionnelle chinoise utilise les propriétés stimulantes et bronchodilatatrices d'Ephedra sinica (Ma-Huang) depuis plusieurs millénaires : la plante fait partie des 365 remèdes du Shen nung pen Ts'ao king. L'éphédrine stimule le système nerveux central, surtout utilisé comme décongestionnant nasal et en traitement de l'asthme. Prise par un sportif en dehors d'indications thérapeutiques, l'éphédra est considérée comme énergisante. La dose toxique est par ailleurs relativement faible.
-Des travaux en cours à l'Universidad Nacional de Tucumán (Argentine), menés conjointement par María Inés Isla, María Rosa Alberto, et la doctorante Romina Torres Carro montrent que Ephedra multiflora possède des propriétés anti inflammatoires[9].
+          <t>Composition chimique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ephedra est l'un des rares parmi les Gymnospermes à produire des alcaloïdes. Les espèces de ce genre contiennent notamment des alcaloïdes, du type « éphédrine », ayant une importance biologique certaine : éphédrine, pseudoéphédrine, noréphédrine, norpseudoéphédrine, méthyléphédrine et méthylpseudoéphédrine. En outre, on a signalé chez certaines espèces eurasiennes, outre les alcaloïdes du type « éphédrine », des  éphédroxanes, et des spermidines macrocycliques, appelées éphédradines A à D.
+D'autres composés chimiques sont également présents, notamment des kynurénates, des acides citrique, oxalique et malique, des saponines, des cristaux d'oxalate de calcium et des traces de minéraux. Les composés volatils présents dans ces plantes sont principalement représentés par des terpénoïdes qui peuvent servir de marqueurs chimiotaxinomiques.
+La teneur totale en alcaloïdes des différentes espèces du genre Ephedra varie considérablement. Certaines, comme les espèces américaines, ne produisent pratiquement aucun alcaloïde actif. La seule espèce commune en Europe, Ephedra distachya, produit peu d'alcaloïdes. En revanche, les espèces chinoises et indiennes produisent des quantités importantes de composés actifs. C'est notamment le cas d’Ephedra sinica et Ephedra equisetina en Chine et d’Ephedra intermedia et Ephedra gerardiana en Inde.
 </t>
         </is>
       </c>
@@ -648,12 +669,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médecine traditionnelle chinoise utilise les propriétés stimulantes et bronchodilatatrices d'Ephedra sinica (Ma-Huang) depuis plusieurs millénaires : la plante fait partie des 365 remèdes du Shen nung pen Ts'ao king. L'éphédrine stimule le système nerveux central, surtout utilisé comme décongestionnant nasal et en traitement de l'asthme. Prise par un sportif en dehors d'indications thérapeutiques, l'éphédra est considérée comme énergisante. La dose toxique est par ailleurs relativement faible.
+Des travaux en cours à l'Universidad Nacional de Tucumán (Argentine), menés conjointement par María Inés Isla, María Rosa Alberto, et la doctorante Romina Torres Carro montrent que Ephedra multiflora possède des propriétés anti inflammatoires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ephedra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ephedra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (1 janvier 2020)[10] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (1 janvier 2020) :
 Ephedra alata Decne.
 Ephedra altissima Desf.
 Ephedra americana Humb. &amp; Bonpl. ex Willd.
